--- a/demos/xyDiagramVirtualLaboratory/src/assets/VLE_example_data.xlsx
+++ b/demos/xyDiagramVirtualLaboratory/src/assets/VLE_example_data.xlsx
@@ -1,38 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neil Hendren\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neil Hendren\Documents\LearnChemEp5jsDemos\demos\xyDiagramVirtualLaboratory\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{872CD283-D731-42D7-AE23-ECB47C4ACDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCE5B52-3C75-4C3C-8DC8-C63E6A777732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4149" yWindow="2614" windowWidth="24968" windowHeight="15900"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="measurement_data_1-5-2023_5-16-" sheetId="1" r:id="rId1"/>
+    <sheet name="Equilibrium Plot" sheetId="2" r:id="rId1"/>
+    <sheet name="Measurement Data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Measurement Data'!#REF!</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Measurement Data'!#REF!</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Measurement Data'!#REF!</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Measurement Data'!#REF!</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Measurement Data'!#REF!</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Measurement Data'!#REF!</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
-  <si>
-    <t>MW component A (g/mol)</t>
-  </si>
-  <si>
-    <t>MW component B (g/mol)</t>
-  </si>
-  <si>
-    <t>density component A (g/mL)</t>
-  </si>
-  <si>
-    <t>density component B (g/mL)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Antoine constants for component A:</t>
   </si>
@@ -66,14 +109,99 @@
   <si>
     <t>temperature (deg. C)</t>
   </si>
+  <si>
+    <t>liquid mole fraction A (xA)</t>
+  </si>
+  <si>
+    <t>liquid mole fraction B (xB)</t>
+  </si>
+  <si>
+    <t>Psat A (mmHg)</t>
+  </si>
+  <si>
+    <t>Psat B (mmHg)</t>
+  </si>
+  <si>
+    <t>activity coefficient A</t>
+  </si>
+  <si>
+    <t>activity coefficient B</t>
+  </si>
+  <si>
+    <t>molar density B (mol/mL)</t>
+  </si>
+  <si>
+    <t>molar density A (mol/mL)</t>
+  </si>
+  <si>
+    <t>density A (g/mL)</t>
+  </si>
+  <si>
+    <t>density B (g/mL)</t>
+  </si>
+  <si>
+    <t>MW B (g/mol)</t>
+  </si>
+  <si>
+    <t>MW A (g/mol)</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>Calculated Margules parameters:</t>
+  </si>
+  <si>
+    <t>right-hand side A</t>
+  </si>
+  <si>
+    <t>right-hand side B</t>
+  </si>
+  <si>
+    <t>Actual Margules parameters (answers):</t>
+  </si>
+  <si>
+    <t>Governing equations:</t>
+  </si>
+  <si>
+    <t>ln(γB)</t>
+  </si>
+  <si>
+    <t>ln(γA)</t>
+  </si>
+  <si>
+    <t>absolute value of ΔA</t>
+  </si>
+  <si>
+    <t>absolute value of ΔB</t>
+  </si>
+  <si>
+    <t>95% confidence intervals</t>
+  </si>
+  <si>
+    <t>x-y Line</t>
+  </si>
+  <si>
+    <t>x values</t>
+  </si>
+  <si>
+    <t>y values</t>
+  </si>
+  <si>
+    <t>Calculated parameters:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -211,7 +339,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,8 +525,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -784,6 +918,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -829,84 +1029,169 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -965,6 +1250,1405 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>equilibrium data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Measurement Data'!$G$17:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.4837542965832882E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13067849473255599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20545330564709899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24771171053310712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27918429985091825</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35189318253919655</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42360106126386871</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42360106126386871</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43376453349009075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49432846636280742</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5243450352051352</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.564095370556705</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62314583928800227</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.63292120775294325</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70082489109364088</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.76782483028308413</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.80571166418167217</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83393894822788872</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89918469702148585</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.96357907330287773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Measurement Data'!$D$17:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.96899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.96699999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4412-494B-8B34-07AD4100638C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>x-y line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Measurement Data'!$B$40:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Measurement Data'!$C$40:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4412-494B-8B34-07AD4100638C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="302947391"/>
+        <c:axId val="302948223"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="302947391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="302948223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="302948223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="302947391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6C0333DA-CFDA-4F2E-90BA-A3A3B2509D7B}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="126" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8662358" cy="6284960"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E0E4B3-947E-3B1E-316B-D31DC515FCFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>92528</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1632596</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F02912-55D2-EF74-F598-576152EEB56B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15365185" y="2149929"/>
+          <a:ext cx="1540068" cy="289059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>674924</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>146964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC0CCC5-616C-5BAD-B0C4-77406FC74BEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17041586" y="2155371"/>
+          <a:ext cx="370124" cy="272150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1792740</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>130638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FEFD450-B621-E7AB-7FC9-54CEECEC8760}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17972314" y="2149929"/>
+          <a:ext cx="1765526" cy="261266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>65311</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1780454</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>146966</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B1C395-7879-E314-2F30-C5FBA98FA8A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19811997" y="2139043"/>
+          <a:ext cx="1715143" cy="288480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>255815</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>598724</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>125192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE5BFF5-ED0A-5B6A-037E-6718DBD3B435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21662572" y="2177143"/>
+          <a:ext cx="342909" cy="228606"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19014</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1861458</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>141522</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D04B37E-0B77-D1A8-46B5-A9454C4F2761}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22307514" y="2165278"/>
+          <a:ext cx="1842444" cy="256801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>46980</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>13220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1862023</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1020E5-4708-81A5-2850-89E01AAD7DAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19793666" y="965720"/>
+          <a:ext cx="1815043" cy="547394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1263,417 +2947,1824 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:S90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="31.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.61328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.53515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.15234375" customWidth="1"/>
+    <col min="3" max="3" width="13.921875" customWidth="1"/>
+    <col min="4" max="4" width="15.4609375" customWidth="1"/>
+    <col min="5" max="5" width="18.23046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.4609375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.4609375" customWidth="1"/>
+    <col min="10" max="10" width="13.53515625" customWidth="1"/>
+    <col min="11" max="11" width="18.3828125" customWidth="1"/>
+    <col min="12" max="12" width="18.61328125" customWidth="1"/>
+    <col min="13" max="13" width="8.61328125" customWidth="1"/>
+    <col min="14" max="14" width="23.84375" customWidth="1"/>
+    <col min="15" max="15" width="13.921875" customWidth="1"/>
+    <col min="16" max="16" width="25.4609375" customWidth="1"/>
+    <col min="17" max="17" width="26.921875" customWidth="1"/>
+    <col min="18" max="18" width="13.15234375" customWidth="1"/>
+    <col min="19" max="19" width="26.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="52"/>
+    </row>
+    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="2">
+        <v>86.9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>84.3</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="G3" s="21">
+        <f>D3/B3</f>
+        <v>1.150747986191024E-2</v>
+      </c>
+      <c r="H3" s="22">
+        <f>E3/C3</f>
+        <v>1.043890865954923E-2</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N4" s="38">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="O4" s="37">
+        <v>0.64733111229853635</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="5">
-        <v>102.5</v>
-      </c>
-      <c r="C3" s="6">
-        <v>98.4</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.76</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="18" t="s">
+      <c r="Q5" s="42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="50"/>
+      <c r="C6" s="18">
+        <v>7.024</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1161</v>
+      </c>
+      <c r="E6" s="20">
+        <v>224</v>
+      </c>
+      <c r="N6" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="52"/>
+      <c r="Q6" s="40"/>
+    </row>
+    <row r="7" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N7" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="43"/>
+    </row>
+    <row r="8" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="4"/>
+      <c r="Q8" s="41"/>
+    </row>
+    <row r="9" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="50"/>
+      <c r="C9" s="18">
+        <v>7.9489999999999998</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1657</v>
+      </c>
+      <c r="E9" s="20">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="N10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="52"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="N11" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="N12" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="C13" s="6">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="N14" s="39"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+    </row>
+    <row r="15" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="G15" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+    </row>
+    <row r="16" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="19"/>
-      <c r="C6" s="24">
-        <v>6.9546999999999999</v>
-      </c>
-      <c r="D6" s="25">
-        <v>1170.97</v>
-      </c>
-      <c r="E6" s="26">
-        <v>226.23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="18" t="s">
+      <c r="C16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B17" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="17">
+        <v>9.5</v>
+      </c>
+      <c r="D17" s="30">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E17" s="35">
+        <v>95.6</v>
+      </c>
+      <c r="G17" s="29">
+        <f t="shared" ref="G17:G36" si="0">B17*$G$3/(B17*$G$3+C17*$H$3)</f>
+        <v>5.4837542965832882E-2</v>
+      </c>
+      <c r="H17" s="30">
+        <f t="shared" ref="H17:H36" si="1">1-G17</f>
+        <v>0.94516245703416712</v>
+      </c>
+      <c r="I17" s="17">
+        <f t="shared" ref="I17:I36" si="2">10^($C$6-$D$6/(E17+$E$6))</f>
+        <v>2462.2614615043867</v>
+      </c>
+      <c r="J17" s="17">
+        <f t="shared" ref="J17:J36" si="3">10^($C$9-$D$9/(E17+$E$9))</f>
+        <v>649.54341381666563</v>
+      </c>
+      <c r="K17" s="30">
+        <f t="shared" ref="K17:K36" si="4">$C$13*D17/(I17*G17)</f>
+        <v>1.1032082686037394</v>
+      </c>
+      <c r="L17" s="31">
+        <f t="shared" ref="L17:L36" si="5">$C$13*(1-D17)/(J17*(1-G17))</f>
+        <v>0.99530227076421351</v>
+      </c>
+      <c r="N17" s="29">
+        <f t="shared" ref="N17:N36" si="6">(H17^2)*($N$4+2*($O$4-$N$4)*G17)</f>
+        <v>6.3423088849906703E-2</v>
+      </c>
+      <c r="O17" s="30">
+        <f t="shared" ref="O17:O36" si="7">LN(K17)</f>
+        <v>9.8222542577405106E-2</v>
+      </c>
+      <c r="P17" s="30">
+        <f t="shared" ref="P17:P36" si="8">ABS(N17-O17)</f>
+        <v>3.4799453727498403E-2</v>
+      </c>
+      <c r="Q17" s="30">
+        <f t="shared" ref="Q17:Q36" si="9">(G17^2)*($O$4+2*($N$4-$O$4)*H17)</f>
+        <v>-1.7331293724867588E-3</v>
+      </c>
+      <c r="R17" s="30">
+        <f t="shared" ref="R17:R36" si="10">LN(L17)</f>
+        <v>-4.7087982455184026E-3</v>
+      </c>
+      <c r="S17" s="31">
+        <f t="shared" ref="S17:S36" si="11">ABS(Q17-R17)</f>
+        <v>2.9756688730316438E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B18" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="C18" s="15">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D18" s="23">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="E18" s="36">
+        <v>89.4</v>
+      </c>
+      <c r="G18" s="24">
+        <f t="shared" si="0"/>
+        <v>0.13067849473255599</v>
+      </c>
+      <c r="H18" s="23">
+        <f t="shared" si="1"/>
+        <v>0.86932150526744401</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="2"/>
+        <v>2086.7434026888286</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="3"/>
+        <v>515.17915289157474</v>
+      </c>
+      <c r="K18" s="23">
+        <f t="shared" si="4"/>
+        <v>1.1036607703415633</v>
+      </c>
+      <c r="L18" s="25">
+        <f t="shared" si="5"/>
+        <v>1.0249715877827565</v>
+      </c>
+      <c r="N18" s="24">
+        <f t="shared" si="6"/>
+        <v>0.12785609804100231</v>
+      </c>
+      <c r="O18" s="23">
+        <f t="shared" si="7"/>
+        <v>9.8632627395470726E-2</v>
+      </c>
+      <c r="P18" s="23">
+        <f t="shared" si="8"/>
+        <v>2.9223470645531588E-2</v>
+      </c>
+      <c r="Q18" s="23">
+        <f t="shared" si="9"/>
+        <v>-8.1652468714357284E-3</v>
+      </c>
+      <c r="R18" s="23">
+        <f t="shared" si="10"/>
+        <v>2.466489296985129E-2</v>
+      </c>
+      <c r="S18" s="25">
+        <f t="shared" si="11"/>
+        <v>3.283013984128702E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B19" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="C19" s="15">
+        <v>8.1</v>
+      </c>
+      <c r="D19" s="23">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="E19" s="36">
+        <v>83.7</v>
+      </c>
+      <c r="G19" s="24">
+        <f t="shared" si="0"/>
+        <v>0.20545330564709899</v>
+      </c>
+      <c r="H19" s="23">
+        <f t="shared" si="1"/>
+        <v>0.79454669435290104</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="2"/>
+        <v>1781.7399954456425</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="3"/>
+        <v>412.9345636447382</v>
+      </c>
+      <c r="K19" s="23">
+        <f t="shared" si="4"/>
+        <v>1.2436064118368033</v>
+      </c>
+      <c r="L19" s="25">
+        <f t="shared" si="5"/>
+        <v>0.92887506313878132</v>
+      </c>
+      <c r="N19" s="24">
+        <f t="shared" si="6"/>
+        <v>0.16792233321611436</v>
+      </c>
+      <c r="O19" s="23">
+        <f t="shared" si="7"/>
+        <v>0.21801555505665443</v>
+      </c>
+      <c r="P19" s="23">
+        <f t="shared" si="8"/>
+        <v>5.0093221840540075E-2</v>
+      </c>
+      <c r="Q19" s="23">
+        <f t="shared" si="9"/>
+        <v>-1.6096701704321759E-2</v>
+      </c>
+      <c r="R19" s="23">
+        <f t="shared" si="10"/>
+        <v>-7.3781034531117465E-2</v>
+      </c>
+      <c r="S19" s="25">
+        <f t="shared" si="11"/>
+        <v>5.7684332826795706E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B20" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C20" s="15">
+        <v>7.7</v>
+      </c>
+      <c r="D20" s="23">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="E20" s="36">
+        <v>80.7</v>
+      </c>
+      <c r="G20" s="24">
+        <f t="shared" si="0"/>
+        <v>0.24771171053310712</v>
+      </c>
+      <c r="H20" s="23">
+        <f t="shared" si="1"/>
+        <v>0.75228828946689286</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="2"/>
+        <v>1635.6665856592408</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="3"/>
+        <v>366.34024192768607</v>
+      </c>
+      <c r="K20" s="23">
+        <f t="shared" si="4"/>
+        <v>1.1610820773506842</v>
+      </c>
+      <c r="L20" s="25">
+        <f t="shared" si="5"/>
+        <v>1.0506779998688405</v>
+      </c>
+      <c r="N20" s="24">
+        <f t="shared" si="6"/>
+        <v>0.18149790545991451</v>
+      </c>
+      <c r="O20" s="23">
+        <f t="shared" si="7"/>
+        <v>0.14935239560944585</v>
+      </c>
+      <c r="P20" s="23">
+        <f t="shared" si="8"/>
+        <v>3.2145509850468656E-2</v>
+      </c>
+      <c r="Q20" s="23">
+        <f t="shared" si="9"/>
+        <v>-2.0042257851550577E-2</v>
+      </c>
+      <c r="R20" s="23">
+        <f t="shared" si="10"/>
+        <v>4.9435669946543095E-2</v>
+      </c>
+      <c r="S20" s="25">
+        <f t="shared" si="11"/>
+        <v>6.9477927798093669E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B21" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="C21" s="15">
+        <v>7.4</v>
+      </c>
+      <c r="D21" s="23">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="E21" s="36">
+        <v>78.7</v>
+      </c>
+      <c r="G21" s="24">
+        <f t="shared" si="0"/>
+        <v>0.27918429985091825</v>
+      </c>
+      <c r="H21" s="23">
+        <f t="shared" si="1"/>
+        <v>0.72081570014908181</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="2"/>
+        <v>1543.5451094148975</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="3"/>
+        <v>337.79502949103551</v>
+      </c>
+      <c r="K21" s="23">
+        <f t="shared" si="4"/>
+        <v>1.1886751155215418</v>
+      </c>
+      <c r="L21" s="25">
+        <f t="shared" si="5"/>
+        <v>1.017545176765384</v>
+      </c>
+      <c r="N21" s="24">
+        <f t="shared" si="6"/>
+        <v>0.18780015359810709</v>
+      </c>
+      <c r="O21" s="23">
+        <f t="shared" si="7"/>
+        <v>0.17283933858959338</v>
+      </c>
+      <c r="P21" s="23">
+        <f t="shared" si="8"/>
+        <v>1.4960815008513706E-2</v>
+      </c>
+      <c r="Q21" s="23">
+        <f t="shared" si="9"/>
+        <v>-2.2282730551556745E-2</v>
+      </c>
+      <c r="R21" s="23">
+        <f t="shared" si="10"/>
+        <v>1.7393037118391609E-2</v>
+      </c>
+      <c r="S21" s="25">
+        <f t="shared" si="11"/>
+        <v>3.9675767669948354E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B22" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="C22" s="15">
+        <v>6.7</v>
+      </c>
+      <c r="D22" s="23">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="E22" s="36">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="G22" s="24">
+        <f t="shared" si="0"/>
+        <v>0.35189318253919655</v>
+      </c>
+      <c r="H22" s="23">
+        <f t="shared" si="1"/>
+        <v>0.64810681746080345</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="2"/>
+        <v>1359.0934822812783</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="3"/>
+        <v>282.69784313780787</v>
+      </c>
+      <c r="K22" s="23">
+        <f t="shared" si="4"/>
+        <v>1.2109002833544058</v>
+      </c>
+      <c r="L22" s="25">
+        <f t="shared" si="5"/>
+        <v>0.98723709285479877</v>
+      </c>
+      <c r="N22" s="24">
+        <f t="shared" si="6"/>
+        <v>0.19136411847151838</v>
+      </c>
+      <c r="O22" s="23">
+        <f t="shared" si="7"/>
+        <v>0.19136411878129914</v>
+      </c>
+      <c r="P22" s="23">
+        <f t="shared" si="8"/>
+        <v>3.0978075660215154E-10</v>
+      </c>
+      <c r="Q22" s="23">
+        <f t="shared" si="9"/>
+        <v>-2.3743964395612133E-2</v>
+      </c>
+      <c r="R22" s="23">
+        <f t="shared" si="10"/>
+        <v>-1.2845052737459712E-2</v>
+      </c>
+      <c r="S22" s="25">
+        <f t="shared" si="11"/>
+        <v>1.089891165815242E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B23" s="14">
+        <v>4</v>
+      </c>
+      <c r="C23" s="15">
+        <v>6</v>
+      </c>
+      <c r="D23" s="23">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="E23" s="36">
+        <v>71</v>
+      </c>
+      <c r="G23" s="24">
+        <f t="shared" si="0"/>
+        <v>0.42360106126386871</v>
+      </c>
+      <c r="H23" s="23">
+        <f t="shared" si="1"/>
+        <v>0.57639893873613124</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="2"/>
+        <v>1225.7637669877554</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="3"/>
+        <v>244.67934849503357</v>
+      </c>
+      <c r="K23" s="23">
+        <f t="shared" si="4"/>
+        <v>1.228037797199768</v>
+      </c>
+      <c r="L23" s="25">
+        <f t="shared" si="5"/>
+        <v>0.86759887530906132</v>
+      </c>
+      <c r="N23" s="24">
+        <f t="shared" si="6"/>
+        <v>0.18220481977142605</v>
+      </c>
+      <c r="O23" s="23">
+        <f t="shared" si="7"/>
+        <v>0.20541760872991074</v>
+      </c>
+      <c r="P23" s="23">
+        <f t="shared" si="8"/>
+        <v>2.3212788958484692E-2</v>
+      </c>
+      <c r="Q23" s="23">
+        <f t="shared" si="9"/>
+        <v>-1.774834577959505E-2</v>
+      </c>
+      <c r="R23" s="23">
+        <f t="shared" si="10"/>
+        <v>-0.1420257963545303</v>
+      </c>
+      <c r="S23" s="25">
+        <f t="shared" si="11"/>
+        <v>0.12427745057493525</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B24" s="14">
+        <v>4</v>
+      </c>
+      <c r="C24" s="15">
+        <v>6</v>
+      </c>
+      <c r="D24" s="23">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="E24" s="36">
+        <v>71</v>
+      </c>
+      <c r="G24" s="24">
+        <f t="shared" si="0"/>
+        <v>0.42360106126386871</v>
+      </c>
+      <c r="H24" s="23">
+        <f t="shared" si="1"/>
+        <v>0.57639893873613124</v>
+      </c>
+      <c r="I24" s="15">
+        <f t="shared" si="2"/>
+        <v>1225.7637669877554</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="3"/>
+        <v>244.67934849503357</v>
+      </c>
+      <c r="K24" s="23">
+        <f t="shared" si="4"/>
+        <v>1.2368199506958328</v>
+      </c>
+      <c r="L24" s="25">
+        <f t="shared" si="5"/>
+        <v>0.83526599796835099</v>
+      </c>
+      <c r="N24" s="24">
+        <f t="shared" si="6"/>
+        <v>0.18220481977142605</v>
+      </c>
+      <c r="O24" s="23">
+        <f t="shared" si="7"/>
+        <v>0.21254352961987819</v>
+      </c>
+      <c r="P24" s="23">
+        <f t="shared" si="8"/>
+        <v>3.0338709848452133E-2</v>
+      </c>
+      <c r="Q24" s="23">
+        <f t="shared" si="9"/>
+        <v>-1.774834577959505E-2</v>
+      </c>
+      <c r="R24" s="23">
+        <f t="shared" si="10"/>
+        <v>-0.18000504441974663</v>
+      </c>
+      <c r="S24" s="25">
+        <f t="shared" si="11"/>
+        <v>0.16225669864015158</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B25" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C25" s="15">
+        <v>5.9</v>
+      </c>
+      <c r="D25" s="23">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="E25" s="36">
+        <v>70.5</v>
+      </c>
+      <c r="G25" s="24">
+        <f t="shared" si="0"/>
+        <v>0.43376453349009075</v>
+      </c>
+      <c r="H25" s="23">
+        <f t="shared" si="1"/>
+        <v>0.56623546650990919</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" si="2"/>
+        <v>1207.0491583412402</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="3"/>
+        <v>239.4705440345262</v>
+      </c>
+      <c r="K25" s="23">
+        <f t="shared" si="4"/>
+        <v>1.156892263533029</v>
+      </c>
+      <c r="L25" s="25">
+        <f t="shared" si="5"/>
+        <v>1.1377856738886356</v>
+      </c>
+      <c r="N25" s="24">
+        <f t="shared" si="6"/>
+        <v>0.18005477867480724</v>
+      </c>
+      <c r="O25" s="23">
+        <f t="shared" si="7"/>
+        <v>0.14573732679119789</v>
+      </c>
+      <c r="P25" s="23">
+        <f t="shared" si="8"/>
+        <v>3.4317451883609351E-2</v>
+      </c>
+      <c r="Q25" s="23">
+        <f t="shared" si="9"/>
+        <v>-1.6134486741059714E-2</v>
+      </c>
+      <c r="R25" s="23">
+        <f t="shared" si="10"/>
+        <v>0.12908398219224471</v>
+      </c>
+      <c r="S25" s="25">
+        <f t="shared" si="11"/>
+        <v>0.14521846893330442</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B26" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="C26" s="15">
+        <v>5.3</v>
+      </c>
+      <c r="D26" s="23">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="E26" s="36">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="G26" s="24">
+        <f t="shared" si="0"/>
+        <v>0.49432846636280742</v>
+      </c>
+      <c r="H26" s="23">
+        <f t="shared" si="1"/>
+        <v>0.50567153363719264</v>
+      </c>
+      <c r="I26" s="15">
+        <f t="shared" si="2"/>
+        <v>1120.2985910973459</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="3"/>
+        <v>215.75171311656149</v>
+      </c>
+      <c r="K26" s="23">
+        <f t="shared" si="4"/>
+        <v>1.1857084763066039</v>
+      </c>
+      <c r="L26" s="25">
+        <f t="shared" si="5"/>
+        <v>0.94739206252481545</v>
+      </c>
+      <c r="N26" s="24">
+        <f t="shared" si="6"/>
+        <v>0.16364739973269246</v>
+      </c>
+      <c r="O26" s="23">
+        <f t="shared" si="7"/>
+        <v>0.17034046623478183</v>
+      </c>
+      <c r="P26" s="23">
+        <f t="shared" si="8"/>
+        <v>6.6930665020893676E-3</v>
+      </c>
+      <c r="Q26" s="23">
+        <f t="shared" si="9"/>
+        <v>-1.7942717915161476E-3</v>
+      </c>
+      <c r="R26" s="23">
+        <f t="shared" si="10"/>
+        <v>-5.4042266694338592E-2</v>
+      </c>
+      <c r="S26" s="25">
+        <f t="shared" si="11"/>
+        <v>5.2247994902822448E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B27" s="14">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="C27" s="15">
+        <v>5</v>
+      </c>
+      <c r="D27" s="23">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="E27" s="36">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="G27" s="24">
+        <f t="shared" si="0"/>
+        <v>0.5243450352051352</v>
+      </c>
+      <c r="H27" s="23">
+        <f t="shared" si="1"/>
+        <v>0.4756549647948648</v>
+      </c>
+      <c r="I27" s="15">
+        <f t="shared" si="2"/>
+        <v>1085.6249982927673</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="3"/>
+        <v>206.47237420518451</v>
+      </c>
+      <c r="K27" s="23">
+        <f t="shared" si="4"/>
+        <v>1.1428529709952906</v>
+      </c>
+      <c r="L27" s="25">
+        <f t="shared" si="5"/>
+        <v>1.1143512343611002</v>
+      </c>
+      <c r="N27" s="24">
+        <f t="shared" si="6"/>
+        <v>0.15358814849901087</v>
+      </c>
+      <c r="O27" s="23">
+        <f t="shared" si="7"/>
+        <v>0.13352774223873926</v>
+      </c>
+      <c r="P27" s="23">
+        <f t="shared" si="8"/>
+        <v>2.0060406260271613E-2</v>
+      </c>
+      <c r="Q27" s="23">
+        <f t="shared" si="9"/>
+        <v>8.6656511889788203E-3</v>
+      </c>
+      <c r="R27" s="23">
+        <f t="shared" si="10"/>
+        <v>0.10827238297923053</v>
+      </c>
+      <c r="S27" s="25">
+        <f t="shared" si="11"/>
+        <v>9.9606731790251715E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B28" s="14">
+        <v>5.4</v>
+      </c>
+      <c r="C28" s="15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D28" s="23">
+        <v>0.875</v>
+      </c>
+      <c r="E28" s="36">
+        <v>65.8</v>
+      </c>
+      <c r="G28" s="24">
+        <f t="shared" si="0"/>
+        <v>0.564095370556705</v>
+      </c>
+      <c r="H28" s="23">
+        <f t="shared" si="1"/>
+        <v>0.435904629443295</v>
+      </c>
+      <c r="I28" s="15">
+        <f t="shared" si="2"/>
+        <v>1041.8107151128777</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" si="3"/>
+        <v>194.91577747026946</v>
+      </c>
+      <c r="K28" s="23">
+        <f t="shared" si="4"/>
+        <v>1.1315670424127904</v>
+      </c>
+      <c r="L28" s="25">
+        <f t="shared" si="5"/>
+        <v>1.1181115387886467</v>
+      </c>
+      <c r="N28" s="24">
+        <f t="shared" si="6"/>
+        <v>0.13876884537121148</v>
+      </c>
+      <c r="O28" s="23">
+        <f t="shared" si="7"/>
+        <v>0.12360343525336982</v>
+      </c>
+      <c r="P28" s="23">
+        <f t="shared" si="8"/>
+        <v>1.5165410117841657E-2</v>
+      </c>
+      <c r="Q28" s="23">
+        <f t="shared" si="9"/>
+        <v>2.64051239338087E-2</v>
+      </c>
+      <c r="R28" s="23">
+        <f t="shared" si="10"/>
+        <v>0.11164113611493542</v>
+      </c>
+      <c r="S28" s="25">
+        <f t="shared" si="11"/>
+        <v>8.5236012181126725E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B29" s="14">
         <v>6</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="19"/>
-      <c r="C9" s="24">
-        <v>6.8777600000000003</v>
-      </c>
-      <c r="D9" s="25">
-        <v>1171.53</v>
-      </c>
-      <c r="E9" s="26">
-        <v>224.36600000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="22">
-        <v>2</v>
-      </c>
-      <c r="C15" s="23">
-        <v>8</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="E15" s="14">
-        <v>62.3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C16" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="E16" s="4">
-        <v>56.8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="E17" s="4">
-        <v>54.9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="E18" s="4">
-        <v>54.8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="E19" s="4">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="C20" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.224</v>
-      </c>
-      <c r="E20" s="4">
-        <v>64.3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="E21" s="4">
-        <v>55.4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="E22" s="4">
-        <v>54.8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="E23" s="4">
-        <v>55.2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="C24" s="2">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="D24" s="2">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E24" s="4">
-        <v>67.900000000000006</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="E25" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="E26" s="4">
-        <v>56.4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="20">
-        <v>5</v>
-      </c>
-      <c r="C27" s="21">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="E27" s="4">
-        <v>55.6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="20">
-        <v>6</v>
-      </c>
-      <c r="C28" s="21">
+      <c r="C29" s="15">
         <v>4</v>
       </c>
-      <c r="D28" s="2">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="E28" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="20">
-        <v>3</v>
-      </c>
-      <c r="C29" s="21">
-        <v>7</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="E29" s="4">
-        <v>59.2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="20">
-        <v>2</v>
-      </c>
-      <c r="C30" s="21">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="E30" s="4">
-        <v>62.3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="C31" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="E31" s="4">
-        <v>56.2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="20">
-        <v>7</v>
-      </c>
-      <c r="C32" s="21">
-        <v>3</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="E32" s="4">
-        <v>54.8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="20">
-        <v>4</v>
-      </c>
-      <c r="C33" s="21">
-        <v>6</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="E33" s="4">
+      <c r="D29" s="23">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="E29" s="36">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="G29" s="24">
+        <f t="shared" si="0"/>
+        <v>0.62314583928800227</v>
+      </c>
+      <c r="H29" s="23">
+        <f t="shared" si="1"/>
+        <v>0.37685416071199773</v>
+      </c>
+      <c r="I29" s="15">
+        <f t="shared" si="2"/>
+        <v>986.61849797765524</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="3"/>
+        <v>180.63337961100262</v>
+      </c>
+      <c r="K29" s="23">
+        <f t="shared" si="4"/>
+        <v>1.1545733136647673</v>
+      </c>
+      <c r="L29" s="25">
+        <f t="shared" si="5"/>
+        <v>0.7368620767287567</v>
+      </c>
+      <c r="N29" s="24">
+        <f t="shared" si="6"/>
+        <v>0.11457577540906382</v>
+      </c>
+      <c r="O29" s="23">
+        <f t="shared" si="7"/>
+        <v>0.14373085032091407</v>
+      </c>
+      <c r="P29" s="23">
+        <f t="shared" si="8"/>
+        <v>2.9155074911850251E-2</v>
+      </c>
+      <c r="Q29" s="23">
+        <f t="shared" si="9"/>
+        <v>6.1909260809696436E-2</v>
+      </c>
+      <c r="R29" s="23">
+        <f t="shared" si="10"/>
+        <v>-0.30535454578660809</v>
+      </c>
+      <c r="S29" s="25">
+        <f t="shared" si="11"/>
+        <v>0.36726380659630453</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B30" s="14">
+        <v>6.1</v>
+      </c>
+      <c r="C30" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="D30" s="23">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="E30" s="36">
+        <v>63.8</v>
+      </c>
+      <c r="G30" s="24">
+        <f t="shared" si="0"/>
+        <v>0.63292120775294325</v>
+      </c>
+      <c r="H30" s="23">
+        <f t="shared" si="1"/>
+        <v>0.36707879224705675</v>
+      </c>
+      <c r="I30" s="15">
+        <f t="shared" si="2"/>
+        <v>977.12151361774067</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="3"/>
+        <v>178.20739513501215</v>
+      </c>
+      <c r="K30" s="23">
+        <f t="shared" si="4"/>
+        <v>1.0998625230504064</v>
+      </c>
+      <c r="L30" s="25">
+        <f t="shared" si="5"/>
+        <v>1.2198821459583806</v>
+      </c>
+      <c r="N30" s="24">
+        <f t="shared" si="6"/>
+        <v>0.11041414475050274</v>
+      </c>
+      <c r="O30" s="23">
+        <f t="shared" si="7"/>
+        <v>9.5185192948708169E-2</v>
+      </c>
+      <c r="P30" s="23">
+        <f t="shared" si="8"/>
+        <v>1.5228951801794566E-2</v>
+      </c>
+      <c r="Q30" s="23">
+        <f t="shared" si="9"/>
+        <v>6.8936630402314694E-2</v>
+      </c>
+      <c r="R30" s="23">
+        <f t="shared" si="10"/>
+        <v>0.19875425240546452</v>
+      </c>
+      <c r="S30" s="25">
+        <f t="shared" si="11"/>
+        <v>0.12981762200314984</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B31" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="C31" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="D31" s="23">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="E31" s="36">
+        <v>62.2</v>
+      </c>
+      <c r="G31" s="24">
+        <f t="shared" si="0"/>
+        <v>0.70082489109364088</v>
+      </c>
+      <c r="H31" s="23">
+        <f t="shared" si="1"/>
+        <v>0.29917510890635912</v>
+      </c>
+      <c r="I31" s="15">
+        <f t="shared" si="2"/>
+        <v>927.67579782032294</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="3"/>
+        <v>165.72999089604198</v>
+      </c>
+      <c r="K31" s="23">
+        <f t="shared" si="4"/>
+        <v>1.0976741579465352</v>
+      </c>
+      <c r="L31" s="25">
+        <f t="shared" si="5"/>
+        <v>0.93501130745570249</v>
+      </c>
+      <c r="N31" s="24">
+        <f t="shared" si="6"/>
+        <v>8.1211383709332161E-2</v>
+      </c>
+      <c r="O31" s="23">
+        <f t="shared" si="7"/>
+        <v>9.3193539433957515E-2</v>
+      </c>
+      <c r="P31" s="23">
+        <f t="shared" si="8"/>
+        <v>1.1982155724625354E-2</v>
+      </c>
+      <c r="Q31" s="23">
+        <f t="shared" si="9"/>
+        <v>0.12770063386267796</v>
+      </c>
+      <c r="R31" s="23">
+        <f t="shared" si="10"/>
+        <v>-6.7196656231065577E-2</v>
+      </c>
+      <c r="S31" s="25">
+        <f t="shared" si="11"/>
+        <v>0.19489729009374354</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B32" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="C32" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D32" s="23">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="E32" s="36">
+        <v>60.8</v>
+      </c>
+      <c r="G32" s="24">
+        <f t="shared" si="0"/>
+        <v>0.76782483028308413</v>
+      </c>
+      <c r="H32" s="23">
+        <f t="shared" si="1"/>
+        <v>0.23217516971691587</v>
+      </c>
+      <c r="I32" s="15">
+        <f t="shared" si="2"/>
+        <v>886.0435249546681</v>
+      </c>
+      <c r="J32" s="15">
+        <f t="shared" si="3"/>
+        <v>155.42809867813409</v>
+      </c>
+      <c r="K32" s="23">
+        <f t="shared" si="4"/>
+        <v>1.0701924745549181</v>
+      </c>
+      <c r="L32" s="25">
+        <f t="shared" si="5"/>
+        <v>0.88454020279557666</v>
+      </c>
+      <c r="N32" s="24">
+        <f t="shared" si="6"/>
+        <v>5.3585855943303166E-2</v>
+      </c>
+      <c r="O32" s="23">
+        <f t="shared" si="7"/>
+        <v>6.783851505845645E-2</v>
+      </c>
+      <c r="P32" s="23">
+        <f t="shared" si="8"/>
+        <v>1.4252659115153284E-2</v>
+      </c>
+      <c r="Q32" s="23">
+        <f t="shared" si="9"/>
+        <v>0.20442387654036395</v>
+      </c>
+      <c r="R32" s="23">
+        <f t="shared" si="10"/>
+        <v>-0.12268731384816005</v>
+      </c>
+      <c r="S32" s="25">
+        <f t="shared" si="11"/>
+        <v>0.32711119038852399</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B33" s="14">
+        <v>7.9</v>
+      </c>
+      <c r="C33" s="15">
+        <v>2.1</v>
+      </c>
+      <c r="D33" s="23">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="E33" s="36">
+        <v>60</v>
+      </c>
+      <c r="G33" s="24">
+        <f t="shared" si="0"/>
+        <v>0.80571166418167217</v>
+      </c>
+      <c r="H33" s="23">
+        <f t="shared" si="1"/>
+        <v>0.19428833581832783</v>
+      </c>
+      <c r="I33" s="15">
+        <f t="shared" si="2"/>
+        <v>862.92257545433722</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" si="3"/>
+        <v>149.7893155260864</v>
+      </c>
+      <c r="K33" s="23">
+        <f t="shared" si="4"/>
+        <v>1.0515675658306336</v>
+      </c>
+      <c r="L33" s="25">
+        <f t="shared" si="5"/>
+        <v>0.99236085435481181</v>
+      </c>
+      <c r="N33" s="24">
+        <f t="shared" si="6"/>
+        <v>3.9375817546934512E-2</v>
+      </c>
+      <c r="O33" s="23">
+        <f t="shared" si="7"/>
+        <v>5.0281970711212577E-2</v>
+      </c>
+      <c r="P33" s="23">
+        <f t="shared" si="8"/>
+        <v>1.0906153164278065E-2</v>
+      </c>
+      <c r="Q33" s="23">
+        <f t="shared" si="9"/>
+        <v>0.25693767353812852</v>
+      </c>
+      <c r="R33" s="23">
+        <f t="shared" si="10"/>
+        <v>-7.6684733729422503E-3</v>
+      </c>
+      <c r="S33" s="25">
+        <f t="shared" si="11"/>
+        <v>0.26460614691107076</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B34" s="14">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C34" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="D34" s="23">
+        <v>0.98</v>
+      </c>
+      <c r="E34" s="36">
+        <v>59.5</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="0"/>
+        <v>0.83393894822788872</v>
+      </c>
+      <c r="H34" s="23">
+        <f t="shared" si="1"/>
+        <v>0.16606105177211128</v>
+      </c>
+      <c r="I34" s="15">
+        <f t="shared" si="2"/>
+        <v>848.71505255615159</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="3"/>
+        <v>146.35409770459415</v>
+      </c>
+      <c r="K34" s="23">
+        <f t="shared" si="4"/>
+        <v>1.0523095351767939</v>
+      </c>
+      <c r="L34" s="25">
+        <f t="shared" si="5"/>
+        <v>0.62541877866592233</v>
+      </c>
+      <c r="N34" s="24">
+        <f t="shared" si="6"/>
+        <v>2.9773254003941207E-2</v>
+      </c>
+      <c r="O34" s="23">
+        <f t="shared" si="7"/>
+        <v>5.0987305995831358E-2</v>
+      </c>
+      <c r="P34" s="23">
+        <f t="shared" si="8"/>
+        <v>2.1214051991890151E-2</v>
+      </c>
+      <c r="Q34" s="23">
+        <f t="shared" si="9"/>
+        <v>0.30067136314868126</v>
+      </c>
+      <c r="R34" s="23">
+        <f t="shared" si="10"/>
+        <v>-0.46933380776076622</v>
+      </c>
+      <c r="S34" s="25">
+        <f t="shared" si="11"/>
+        <v>0.77000517090944753</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B35" s="14">
+        <v>8.9</v>
+      </c>
+      <c r="C35" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D35" s="23">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="E35" s="36">
+        <v>58.2</v>
+      </c>
+      <c r="G35" s="24">
+        <f t="shared" si="0"/>
+        <v>0.89918469702148585</v>
+      </c>
+      <c r="H35" s="23">
+        <f t="shared" si="1"/>
+        <v>0.10081530297851415</v>
+      </c>
+      <c r="I35" s="15">
+        <f t="shared" si="2"/>
+        <v>812.63687851765508</v>
+      </c>
+      <c r="J35" s="15">
+        <f t="shared" si="3"/>
+        <v>137.73429034919587</v>
+      </c>
+      <c r="K35" s="23">
+        <f t="shared" si="4"/>
+        <v>1.0078407980473483</v>
+      </c>
+      <c r="L35" s="25">
+        <f t="shared" si="5"/>
+        <v>1.6967066060188367</v>
+      </c>
+      <c r="N35" s="24">
+        <f t="shared" si="6"/>
+        <v>1.1832003864832401E-2</v>
+      </c>
+      <c r="O35" s="23">
+        <f t="shared" si="7"/>
+        <v>7.8102187304962666E-3</v>
+      </c>
+      <c r="P35" s="23">
+        <f t="shared" si="8"/>
+        <v>4.0217851343361342E-3</v>
+      </c>
+      <c r="Q35" s="23">
+        <f t="shared" si="9"/>
+        <v>0.41785747414727348</v>
+      </c>
+      <c r="R35" s="23">
+        <f t="shared" si="10"/>
+        <v>0.52868908151048677</v>
+      </c>
+      <c r="S35" s="25">
+        <f t="shared" si="11"/>
+        <v>0.11083160736321329</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="33">
+        <v>9.6</v>
+      </c>
+      <c r="C36" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="D36" s="18">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="E36" s="20">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="5">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C34" s="6">
-        <v>5.4</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="E34" s="7">
-        <v>56.1</v>
-      </c>
+      <c r="G36" s="26">
+        <f t="shared" si="0"/>
+        <v>0.96357907330287773</v>
+      </c>
+      <c r="H36" s="18">
+        <f t="shared" si="1"/>
+        <v>3.6420926697122269E-2</v>
+      </c>
+      <c r="I36" s="27">
+        <f t="shared" si="2"/>
+        <v>780.41822369670308</v>
+      </c>
+      <c r="J36" s="27">
+        <f t="shared" si="3"/>
+        <v>130.16462087098523</v>
+      </c>
+      <c r="K36" s="18">
+        <f t="shared" si="4"/>
+        <v>0.97729416246250023</v>
+      </c>
+      <c r="L36" s="28">
+        <f t="shared" si="5"/>
+        <v>5.2903399802939575</v>
+      </c>
+      <c r="N36" s="26">
+        <f t="shared" si="6"/>
+        <v>1.6548011713490944E-3</v>
+      </c>
+      <c r="O36" s="18">
+        <f t="shared" si="7"/>
+        <v>-2.2967584782680066E-2</v>
+      </c>
+      <c r="P36" s="18">
+        <f t="shared" si="8"/>
+        <v>2.4622385954029161E-2</v>
+      </c>
+      <c r="Q36" s="18">
+        <f t="shared" si="9"/>
+        <v>0.55725634040888683</v>
+      </c>
+      <c r="R36" s="18">
+        <f t="shared" si="10"/>
+        <v>1.6658825122916476</v>
+      </c>
+      <c r="S36" s="28">
+        <f t="shared" si="11"/>
+        <v>1.1086261718827608</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B37" s="53"/>
+    </row>
+    <row r="38" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="57"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B40" s="54">
+        <v>0</v>
+      </c>
+      <c r="C40" s="55">
+        <v>0</v>
+      </c>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="45"/>
+    </row>
+    <row r="41" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="45"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="45"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="45"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="45"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="45"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="45"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="45"/>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="45"/>
+    </row>
+    <row r="49" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="45"/>
+    </row>
+    <row r="50" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="45"/>
+    </row>
+    <row r="51" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="45"/>
+    </row>
+    <row r="52" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="45"/>
+    </row>
+    <row r="53" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="45"/>
+    </row>
+    <row r="54" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="45"/>
+    </row>
+    <row r="56" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="45"/>
+    </row>
+    <row r="57" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="45"/>
+    </row>
+    <row r="58" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="45"/>
+    </row>
+    <row r="59" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="45"/>
+    </row>
+    <row r="60" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="45"/>
+    </row>
+    <row r="61" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="45"/>
+    </row>
+    <row r="62" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="45"/>
+    </row>
+    <row r="63" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="45"/>
+    </row>
+    <row r="64" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="45"/>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="45"/>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G66" s="58"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="45"/>
+    </row>
+    <row r="67" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="45"/>
+    </row>
+    <row r="68" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G68" s="58"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="45"/>
+    </row>
+    <row r="69" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G69" s="58"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="45"/>
+    </row>
+    <row r="70" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G70" s="58"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="45"/>
+    </row>
+    <row r="71" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G71" s="58"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="45"/>
+    </row>
+    <row r="72" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="45"/>
+    </row>
+    <row r="73" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G73" s="58"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="45"/>
+    </row>
+    <row r="74" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G74" s="58"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="45"/>
+    </row>
+    <row r="75" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G75" s="58"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="45"/>
+    </row>
+    <row r="76" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G76" s="58"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="45"/>
+    </row>
+    <row r="77" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G77" s="58"/>
+      <c r="H77" s="58"/>
+      <c r="I77" s="45"/>
+    </row>
+    <row r="78" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G78" s="58"/>
+      <c r="H78" s="58"/>
+      <c r="I78" s="45"/>
+    </row>
+    <row r="79" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G79" s="58"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="45"/>
+    </row>
+    <row r="80" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G80" s="58"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="45"/>
+    </row>
+    <row r="81" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G81" s="58"/>
+      <c r="H81" s="58"/>
+      <c r="I81" s="45"/>
+    </row>
+    <row r="82" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G82" s="58"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="45"/>
+    </row>
+    <row r="83" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G83" s="58"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="45"/>
+    </row>
+    <row r="84" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G84" s="58"/>
+      <c r="H84" s="58"/>
+      <c r="I84" s="45"/>
+    </row>
+    <row r="85" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G85" s="58"/>
+      <c r="H85" s="58"/>
+      <c r="I85" s="45"/>
+    </row>
+    <row r="86" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G86" s="58"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="45"/>
+    </row>
+    <row r="87" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G87" s="58"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="45"/>
+    </row>
+    <row r="88" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G88" s="58"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="45"/>
+    </row>
+    <row r="89" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="45"/>
+    </row>
+    <row r="90" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G90" s="58"/>
+      <c r="H90" s="58"/>
+      <c r="I90" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:L15"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/demos/xyDiagramVirtualLaboratory/src/assets/VLE_example_data.xlsx
+++ b/demos/xyDiagramVirtualLaboratory/src/assets/VLE_example_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neil Hendren\Documents\LearnChemEp5jsDemos\demos\xyDiagramVirtualLaboratory\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCE5B52-3C75-4C3C-8DC8-C63E6A777732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F367FFB-C99C-47F9-93E0-965B3B8E0245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5649" yWindow="1749" windowWidth="24968" windowHeight="15900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equilibrium Plot" sheetId="2" r:id="rId1"/>
@@ -164,9 +164,6 @@
     <t>Actual Margules parameters (answers):</t>
   </si>
   <si>
-    <t>Governing equations:</t>
-  </si>
-  <si>
     <t>ln(γB)</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>Calculated parameters:</t>
+  </si>
+  <si>
+    <t>Relevant equations:</t>
   </si>
 </sst>
 </file>
@@ -1165,18 +1165,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1187,11 +1175,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2950,8 +2950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2995,10 +2995,10 @@
       <c r="H2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="N2" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="52"/>
+      <c r="O2" s="59"/>
     </row>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="2">
@@ -3037,7 +3037,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="56" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -3050,11 +3050,11 @@
         <v>3</v>
       </c>
       <c r="Q5" s="42" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="50"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="18">
         <v>7.024</v>
       </c>
@@ -3064,10 +3064,10 @@
       <c r="E6" s="20">
         <v>224</v>
       </c>
-      <c r="N6" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="52"/>
+      <c r="N6" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="59"/>
       <c r="Q6" s="40"/>
     </row>
     <row r="7" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -3080,7 +3080,7 @@
       <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="56" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -3097,7 +3097,7 @@
       <c r="Q8" s="41"/>
     </row>
     <row r="9" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="50"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="18">
         <v>7.9489999999999998</v>
       </c>
@@ -3113,10 +3113,10 @@
       <c r="C10" s="45"/>
       <c r="D10" s="46"/>
       <c r="E10" s="47"/>
-      <c r="N10" s="51" t="s">
+      <c r="N10" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="52"/>
+      <c r="O10" s="59"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B11" s="44"/>
@@ -3155,20 +3155,20 @@
       <c r="S14" s="40"/>
     </row>
     <row r="15" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="G15" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="G15" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
       <c r="N15" s="48"/>
       <c r="O15" s="43"/>
       <c r="P15" s="43"/>
@@ -3211,19 +3211,19 @@
         <v>26</v>
       </c>
       <c r="O16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>27</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.4">
@@ -4467,20 +4467,20 @@
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B37" s="53"/>
+      <c r="B37" s="49"/>
     </row>
     <row r="38" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="57"/>
+      <c r="B38" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="53"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -4488,14 +4488,14 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B40" s="54">
+      <c r="B40" s="50">
         <v>0</v>
       </c>
-      <c r="C40" s="55">
+      <c r="C40" s="51">
         <v>0</v>
       </c>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
       <c r="I40" s="45"/>
     </row>
     <row r="41" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -4505,253 +4505,253 @@
       <c r="C41" s="4">
         <v>1</v>
       </c>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
       <c r="I41" s="45"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
       <c r="I42" s="45"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
       <c r="I43" s="45"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
       <c r="I44" s="45"/>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
       <c r="I45" s="45"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
       <c r="I46" s="45"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
       <c r="I47" s="45"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
       <c r="I48" s="45"/>
     </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
       <c r="I49" s="45"/>
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
       <c r="I50" s="45"/>
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
       <c r="I51" s="45"/>
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
       <c r="I52" s="45"/>
     </row>
     <row r="53" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
       <c r="I53" s="45"/>
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
       <c r="I54" s="45"/>
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
       <c r="I55" s="45"/>
     </row>
     <row r="56" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
       <c r="I56" s="45"/>
     </row>
     <row r="57" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
       <c r="I57" s="45"/>
     </row>
     <row r="58" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G59" s="58"/>
-      <c r="H59" s="58"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
       <c r="I60" s="45"/>
     </row>
     <row r="61" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G61" s="58"/>
-      <c r="H61" s="58"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
       <c r="I61" s="45"/>
     </row>
     <row r="62" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
       <c r="I62" s="45"/>
     </row>
     <row r="63" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
       <c r="I63" s="45"/>
     </row>
     <row r="64" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
       <c r="I64" s="45"/>
     </row>
     <row r="65" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
       <c r="I65" s="45"/>
     </row>
     <row r="66" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G66" s="58"/>
-      <c r="H66" s="58"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
       <c r="I66" s="45"/>
     </row>
     <row r="67" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G67" s="58"/>
-      <c r="H67" s="58"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
       <c r="I67" s="45"/>
     </row>
     <row r="68" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G68" s="58"/>
-      <c r="H68" s="58"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
       <c r="I68" s="45"/>
     </row>
     <row r="69" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G69" s="58"/>
-      <c r="H69" s="58"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
       <c r="I69" s="45"/>
     </row>
     <row r="70" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G70" s="58"/>
-      <c r="H70" s="58"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
       <c r="I70" s="45"/>
     </row>
     <row r="71" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G71" s="58"/>
-      <c r="H71" s="58"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
       <c r="I71" s="45"/>
     </row>
     <row r="72" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
       <c r="I72" s="45"/>
     </row>
     <row r="73" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G73" s="58"/>
-      <c r="H73" s="58"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
       <c r="I73" s="45"/>
     </row>
     <row r="74" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G74" s="58"/>
-      <c r="H74" s="58"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
       <c r="I74" s="45"/>
     </row>
     <row r="75" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="54"/>
       <c r="I75" s="45"/>
     </row>
     <row r="76" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G76" s="58"/>
-      <c r="H76" s="58"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
       <c r="I76" s="45"/>
     </row>
     <row r="77" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G77" s="58"/>
-      <c r="H77" s="58"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
       <c r="I77" s="45"/>
     </row>
     <row r="78" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G78" s="58"/>
-      <c r="H78" s="58"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
       <c r="I78" s="45"/>
     </row>
     <row r="79" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G79" s="58"/>
-      <c r="H79" s="58"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="54"/>
       <c r="I79" s="45"/>
     </row>
     <row r="80" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G80" s="58"/>
-      <c r="H80" s="58"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
       <c r="I80" s="45"/>
     </row>
     <row r="81" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G81" s="58"/>
-      <c r="H81" s="58"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="54"/>
       <c r="I81" s="45"/>
     </row>
     <row r="82" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G82" s="58"/>
-      <c r="H82" s="58"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="54"/>
       <c r="I82" s="45"/>
     </row>
     <row r="83" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G83" s="58"/>
-      <c r="H83" s="58"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
       <c r="I83" s="45"/>
     </row>
     <row r="84" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G84" s="58"/>
-      <c r="H84" s="58"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
       <c r="I84" s="45"/>
     </row>
     <row r="85" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G85" s="58"/>
-      <c r="H85" s="58"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
       <c r="I85" s="45"/>
     </row>
     <row r="86" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G86" s="58"/>
-      <c r="H86" s="58"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="54"/>
       <c r="I86" s="45"/>
     </row>
     <row r="87" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G87" s="58"/>
-      <c r="H87" s="58"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="54"/>
       <c r="I87" s="45"/>
     </row>
     <row r="88" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G88" s="58"/>
-      <c r="H88" s="58"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54"/>
       <c r="I88" s="45"/>
     </row>
     <row r="89" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G89" s="58"/>
-      <c r="H89" s="58"/>
+      <c r="G89" s="54"/>
+      <c r="H89" s="54"/>
       <c r="I89" s="45"/>
     </row>
     <row r="90" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G90" s="58"/>
-      <c r="H90" s="58"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="54"/>
       <c r="I90" s="45"/>
     </row>
   </sheetData>

--- a/demos/xyDiagramVirtualLaboratory/src/assets/VLE_example_data.xlsx
+++ b/demos/xyDiagramVirtualLaboratory/src/assets/VLE_example_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neil Hendren\Documents\LearnChemEp5jsDemos\demos\xyDiagramVirtualLaboratory\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F367FFB-C99C-47F9-93E0-965B3B8E0245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D044BAAA-A240-4B6F-B254-6E9805F9E9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5649" yWindow="1749" windowWidth="24968" windowHeight="15900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1311" yWindow="840" windowWidth="16629" windowHeight="17031" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equilibrium Plot" sheetId="2" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Antoine constants for component A:</t>
   </si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>Relevant equations:</t>
+  </si>
+  <si>
+    <t>Total ΔA</t>
+  </si>
+  <si>
+    <t>Total ΔB</t>
+  </si>
+  <si>
+    <t>Total ΔA + ΔB</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1038,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1192,6 +1201,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2950,8 +2965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4466,8 +4481,22 @@
         <v>1.1086261718827608</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="49"/>
+      <c r="O37" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="P37" s="61">
+        <f>SUM(P17:P36)</f>
+        <v>0.42239352275103897</v>
+      </c>
+      <c r="R37" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="S37" s="61">
+        <f>SUM(S17:S36)</f>
+        <v>4.1555451118381148</v>
+      </c>
     </row>
     <row r="38" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B38" s="52" t="s">
@@ -4475,7 +4504,7 @@
       </c>
       <c r="C38" s="53"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="7" t="s">
         <v>35</v>
       </c>
@@ -4486,6 +4515,13 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
+      <c r="P39" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q39" s="61">
+        <f>P37+S37</f>
+        <v>4.5779386345891542</v>
+      </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B40" s="50">
